--- a/products_with_date_of_manufacture.xlsx
+++ b/products_with_date_of_manufacture.xlsx
@@ -1,37 +1,447 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fish/Desktop/CODE/Python/batch-code-checker/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AE2CC1-08A4-B74F-B3EB-04BC9E3EEC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="130">
+  <si>
+    <t>國際碼</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>品名</t>
+  </si>
+  <si>
+    <t>批號</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>Cosmetic Calculator</t>
+  </si>
+  <si>
+    <t>赫蓮娜</t>
+  </si>
+  <si>
+    <t>赫蓮娜 植萃綠寶修護精華_100ml</t>
+  </si>
+  <si>
+    <t>40W101</t>
+  </si>
+  <si>
+    <t>40W500</t>
+  </si>
+  <si>
+    <t>DIOR</t>
+  </si>
+  <si>
+    <t>#001 DIOR豐漾俏唇蜜_2ml</t>
+  </si>
+  <si>
+    <t>3C02</t>
+  </si>
+  <si>
+    <t>#004 DIOR豐漾俏唇蜜_2ml</t>
+  </si>
+  <si>
+    <t>3B02</t>
+  </si>
+  <si>
+    <t>#038 DIOR豐漾俏唇蜜_2ml</t>
+  </si>
+  <si>
+    <t>NARS</t>
+  </si>
+  <si>
+    <t>#132 特霧絲柔持色唇膏_0.8g</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>#ORGASM 迷你高潮腮紅_1.2g</t>
+  </si>
+  <si>
+    <t>2265AC</t>
+  </si>
+  <si>
+    <t>2216AC</t>
+  </si>
+  <si>
+    <t>2214AC</t>
+  </si>
+  <si>
+    <t>#DRAGON GIRL 特霧唇誘_2ml</t>
+  </si>
+  <si>
+    <t>1308AC</t>
+  </si>
+  <si>
+    <t>LANCOME</t>
+  </si>
+  <si>
+    <t>LANCOME 清柔卸妝乳_50ml</t>
+  </si>
+  <si>
+    <t>40UN00</t>
+  </si>
+  <si>
+    <t>40U500</t>
+  </si>
+  <si>
+    <t>MAISON MARGIELA</t>
+  </si>
+  <si>
+    <t>泡泡浴淡香水_30ml</t>
+  </si>
+  <si>
+    <t>22W61YR</t>
+  </si>
+  <si>
+    <t>理髮廳淡香水_30ml</t>
+  </si>
+  <si>
+    <t>22W61YV</t>
+  </si>
+  <si>
+    <t>花卉市場淡香水_30ml</t>
+  </si>
+  <si>
+    <t>22W61YM</t>
+  </si>
+  <si>
+    <t>抹茶冥想淡香水_30ml</t>
+  </si>
+  <si>
+    <t>慵懶周末淡香水_30ml</t>
+  </si>
+  <si>
+    <t>22W63Y8</t>
+  </si>
+  <si>
+    <t>22W13YD</t>
+  </si>
+  <si>
+    <t>22W31Y9</t>
+  </si>
+  <si>
+    <t>沙灘漫步淡香水_30ml</t>
+  </si>
+  <si>
+    <t>22W81Y5</t>
+  </si>
+  <si>
+    <t>22W31YA</t>
+  </si>
+  <si>
+    <t>壁爐火光淡香水_30ml</t>
+  </si>
+  <si>
+    <t>22W52YL</t>
+  </si>
+  <si>
+    <t>22UD1YL</t>
+  </si>
+  <si>
+    <t>22W61YE</t>
+  </si>
+  <si>
+    <t>爵士俱樂部淡香水_30ml</t>
+  </si>
+  <si>
+    <t>22W61YN</t>
+  </si>
+  <si>
+    <t>22W21Y8</t>
+  </si>
+  <si>
+    <t>檸檬樹下淡香水_30ml</t>
+  </si>
+  <si>
+    <t>22W81Y1</t>
+  </si>
+  <si>
+    <t>22TD0Y9</t>
+  </si>
+  <si>
+    <t>22W91YP</t>
+  </si>
+  <si>
+    <t>春日公園淡香水_30ml</t>
+  </si>
+  <si>
+    <t>22W01YB</t>
+  </si>
+  <si>
+    <t>22W51Y4</t>
+  </si>
+  <si>
+    <t>圖書館密語淡香水_30ml</t>
+  </si>
+  <si>
+    <t>22W51YU</t>
+  </si>
+  <si>
+    <t>22W71YW</t>
+  </si>
+  <si>
+    <t>航海日淡香水_30ml</t>
+  </si>
+  <si>
+    <t>22W61YU</t>
+  </si>
+  <si>
+    <t>22W31Y3</t>
+  </si>
+  <si>
+    <t>22W11YJ</t>
+  </si>
+  <si>
+    <t>雨過天晴淡香水_30ml</t>
+  </si>
+  <si>
+    <t>22W73YV</t>
+  </si>
+  <si>
+    <t>秋天氣息淡香水_30ml</t>
+  </si>
+  <si>
+    <t>22W31YF</t>
+  </si>
+  <si>
+    <t>雨過天晴淡香水_100ml</t>
+  </si>
+  <si>
+    <t>22W51YH</t>
+  </si>
+  <si>
+    <t>22W71Y4</t>
+  </si>
+  <si>
+    <t>抹茶冥想淡香水_100ml</t>
+  </si>
+  <si>
+    <t>22UDYD</t>
+  </si>
+  <si>
+    <t>22U60Y2</t>
+  </si>
+  <si>
+    <t>22TN0YD</t>
+  </si>
+  <si>
+    <t>22U40YC</t>
+  </si>
+  <si>
+    <t>La Prairie</t>
+  </si>
+  <si>
+    <t>鑽白魚子時空聚光緊膚霜_5ml</t>
+  </si>
+  <si>
+    <t>Gucci</t>
+  </si>
+  <si>
+    <t>幻夢梔子花女性淡香精_5ml</t>
+  </si>
+  <si>
+    <t>花悅馥意女性淡香精_5ml</t>
+  </si>
+  <si>
+    <t>罪愛女性濃郁淡香精 5ml</t>
+  </si>
+  <si>
+    <t>罪愛男性香精_5ml</t>
+  </si>
+  <si>
+    <t>3616302514328</t>
+  </si>
+  <si>
+    <t>花悅女性淡香水_5ml</t>
+  </si>
+  <si>
+    <t>3616302514335</t>
+  </si>
+  <si>
+    <t>花悅女性淡香水_1.5ml</t>
+  </si>
+  <si>
+    <t>3616302018956</t>
+  </si>
+  <si>
+    <t>幻夢梔子花女性淡香精_1.5ml</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>3616301794691</t>
+  </si>
+  <si>
+    <t>罪愛女性淡香精 _1.5mL</t>
+  </si>
+  <si>
+    <t>2022-01-13</t>
+  </si>
+  <si>
+    <t>8005610481722</t>
+  </si>
+  <si>
+    <t>花悅女性淡香精_1.5ml</t>
+  </si>
+  <si>
+    <t>8005610481760</t>
+  </si>
+  <si>
+    <t>花悅女性淡香精_5ml</t>
+  </si>
+  <si>
+    <t>3614229945362</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 花悅沁意女性淡香精_5ml </t>
+  </si>
+  <si>
+    <t>YSL</t>
+  </si>
+  <si>
+    <t>極效活萃澎潤能量露_30ml</t>
+  </si>
+  <si>
+    <t>40W12U</t>
+  </si>
+  <si>
+    <t>40W11U</t>
+  </si>
+  <si>
+    <t>40W31U</t>
+  </si>
+  <si>
+    <t>717334257801</t>
+  </si>
+  <si>
+    <t>品木宣言</t>
+  </si>
+  <si>
+    <t>青春無敵靈芝光潤機能水_200ml</t>
+  </si>
+  <si>
+    <t>DB1</t>
+  </si>
+  <si>
+    <t>FB1</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>3346132401177</t>
+  </si>
+  <si>
+    <t>HERMES</t>
+  </si>
+  <si>
+    <t>屋頂花園中性淡香水_15ml</t>
+  </si>
+  <si>
+    <t>3614272520639</t>
+  </si>
+  <si>
+    <t>TS-超極光活粹晶露_150ml</t>
+  </si>
+  <si>
+    <t>40W200</t>
+  </si>
+  <si>
+    <t>3605530741446</t>
+  </si>
+  <si>
+    <t>TS-晶透潔顏泡沫_200ml</t>
+  </si>
+  <si>
+    <t>40W401</t>
+  </si>
+  <si>
+    <t>LA47040</t>
+  </si>
+  <si>
+    <t>超極光活粹晶露_50ml</t>
+  </si>
+  <si>
+    <t>40W601</t>
+  </si>
+  <si>
+    <t>L551150</t>
+  </si>
+  <si>
+    <t>清柔卸妝乳_50ml</t>
+  </si>
+  <si>
+    <t>40W600</t>
+  </si>
+  <si>
+    <t>3614272508866</t>
+  </si>
+  <si>
+    <t>超未來肌因賦活露_115ml</t>
+  </si>
+  <si>
+    <t>40WO00</t>
+  </si>
+  <si>
+    <t>40W800</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +456,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,116 +780,1155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="27.19921875" customWidth="1"/>
+    <col min="2" max="2" width="35.796875" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="5" max="5" width="21.3984375" customWidth="1"/>
+    <col min="6" max="6" width="31.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Brand</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Batch</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Date of Manufacture</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>NARS</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>3614272751156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2022.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>2022.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>2023.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>2023.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>2023.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>194251133966</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
         <v>2062</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>NARS</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="E8">
+        <v>2022.03</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
         <v>2070</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>LANCOME</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>40UN00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>November 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DIOR</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3C02</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Gucci</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="E9">
+        <v>2022.03</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>2059</v>
+      </c>
+      <c r="E10">
+        <v>2022.02</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>607845640134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2022.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2022.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2022.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>194251128689</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>2021.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>2021.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>2021.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>3614273185936</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>2022.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>3614273185912</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>2022.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>3614273185837</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>2022.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>3614273312356</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>2022.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>3614273185820</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22">
+        <v>2022.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>2022.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>2022.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>3614273185813</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <v>2022.08</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26">
+        <v>2022.03</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>3614273185875</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27">
+        <v>2022.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28">
+        <v>2021.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29">
+        <v>2022.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>3614273185868</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30">
+        <v>2022.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>2022.02</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>3614273185844</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32">
+        <v>2022.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33">
+        <v>2020.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34">
+        <v>2022.09</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>3614273185929</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35">
+        <v>2022.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36">
+        <v>2022.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>3614273185899</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37">
+        <v>2022.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38">
+        <v>2022.07</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>3614273185851</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39">
+        <v>2022.06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40">
+        <v>2022.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41">
+        <v>2022.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>3614273612661</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42">
+        <v>2022.07</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>3614273416719</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43">
+        <v>2022.03</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>3614273612678</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44">
+        <v>2022.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45">
+        <v>2022.07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>3614273312370</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46">
+        <v>2021.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47">
+        <v>2021.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48">
+        <v>2020.11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49">
+        <v>2021.04</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>7611773087261</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51">
+        <v>213122411</v>
+      </c>
+      <c r="E51">
+        <v>2022.04</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>3616302018963</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53">
+        <v>1329</v>
+      </c>
+      <c r="E53">
+        <v>2021.11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54">
+        <v>1153</v>
+      </c>
+      <c r="E54">
+        <v>2021.06</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>3614228958707</v>
+      </c>
+      <c r="B55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55">
+        <v>1161</v>
+      </c>
+      <c r="E55">
+        <v>2021.06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>3616301794660</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56">
         <v>1208</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>27 of July, 2021</t>
-        </is>
+      <c r="E56">
+        <v>2021.07</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57">
+        <v>1328</v>
+      </c>
+      <c r="E57">
+        <v>2021.11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>3616301794622</v>
+      </c>
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58">
+        <v>1208</v>
+      </c>
+      <c r="E58">
+        <v>2021.07</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59">
+        <v>1329</v>
+      </c>
+      <c r="E59">
+        <v>2021.11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60">
+        <v>1326</v>
+      </c>
+      <c r="E60">
+        <v>2021.11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61">
+        <v>1257</v>
+      </c>
+      <c r="E61">
+        <v>2021.09</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62">
+        <v>1161</v>
+      </c>
+      <c r="E62">
+        <v>2021.06</v>
+      </c>
+      <c r="F62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63">
+        <v>2013</v>
+      </c>
+      <c r="E63">
+        <v>2022.01</v>
+      </c>
+      <c r="F63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64">
+        <v>1048</v>
+      </c>
+      <c r="E64">
+        <v>2021.02</v>
+      </c>
+      <c r="F64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65">
+        <v>1141</v>
+      </c>
+      <c r="E65">
+        <v>2021.05</v>
+      </c>
+      <c r="F65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66">
+        <v>296</v>
+      </c>
+      <c r="E66">
+        <v>2020.1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>3614272354821</v>
+      </c>
+      <c r="B68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68">
+        <v>2022.01</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="B69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69">
+        <v>2022.01</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="B70" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" t="s">
+        <v>104</v>
+      </c>
+      <c r="E70">
+        <v>2022.03</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71">
+        <v>2021.11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="B72" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72">
+        <v>2021.11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="B73" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73">
+        <v>2022.01</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74">
+        <v>14622</v>
+      </c>
+      <c r="E74">
+        <v>2021.11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" t="s">
+        <v>116</v>
+      </c>
+      <c r="E76">
+        <v>2022.02</v>
+      </c>
+      <c r="F76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" t="s">
+        <v>119</v>
+      </c>
+      <c r="E77">
+        <v>2022.04</v>
+      </c>
+      <c r="F77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78">
+        <v>2022.06</v>
+      </c>
+      <c r="F78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79">
+        <v>2022.06</v>
+      </c>
+      <c r="F79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80">
+        <v>2022.1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81">
+        <v>2022.08</v>
+      </c>
+      <c r="F81" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>